--- a/public/EmployeeData/Data Pegawai CV Nore Inovasi.xlsx
+++ b/public/EmployeeData/Data Pegawai CV Nore Inovasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A927798-EEE1-4FD7-ABD5-5DA0A584262E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181F3DB4-0C25-4A44-86A3-350EDEFB0478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,10 +415,13 @@
   <dimension ref="B1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
@@ -428,7 +431,7 @@
         <v>0</v>
       </c>
       <c r="D1">
-        <v>200115</v>
+        <v>2001156574839</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -448,7 +451,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>200387</v>
+        <v>2003875645312</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -468,7 +471,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>200185</v>
+        <v>2001858995674</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
